--- a/data/init/point_point.xlsx
+++ b/data/init/point_point.xlsx
@@ -5,20 +5,31 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIUCclass\23SP\IS597PR\FinalProj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIUCclass\23SP\IS597PR\FinalProj\2023Spr_projects_catan_simulation\data\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C8A9C-FA28-49DE-99EA-4757E11BA7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3A91D-6FAC-4AF8-BE7E-54E4B31768F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -351,7 +362,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C2" sqref="C2:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/init/point_point.xlsx
+++ b/data/init/point_point.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UIUCclass\23SP\IS597PR\FinalProj\2023Spr_projects_catan_simulation\data\init\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE3A91D-6FAC-4AF8-BE7E-54E4B31768F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30206CB-8EF0-4370-8CD4-21C3472476E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="2820" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,7 +362,7 @@
   <dimension ref="A1:B73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D73"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +425,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8">
         <v>8</v>
@@ -433,7 +433,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>9</v>
@@ -441,7 +441,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>10</v>
@@ -449,7 +449,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>11</v>
